--- a/biology/Médecine/Ongle_incarné/Ongle_incarné.xlsx
+++ b/biology/Médecine/Ongle_incarné/Ongle_incarné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ongle_incarn%C3%A9</t>
+          <t>Ongle_incarné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un ongle incarné (ou onychocryptose) est une inflammation de la peau due à un enfoncement anormal de l'ongle dans la chair[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un ongle incarné (ou onychocryptose) est une inflammation de la peau due à un enfoncement anormal de l'ongle dans la chair.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ongle_incarn%C3%A9</t>
+          <t>Ongle_incarné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Anatomie de l'ongle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anatomie de l'ongle est décrite dans l'article : ongle.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ongle_incarn%C3%A9</t>
+          <t>Ongle_incarné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il en existe plusieurs types :
 Ongles incarnés des jeunes enfants ;
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ongle_incarn%C3%A9</t>
+          <t>Ongle_incarné</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,14 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les causes peuvent être multiples mais certaines sont clairement identifiées :
 Ongle incarné des jeunes enfants : 
 Ongle incarné juvénile :
-Ongle incarné des seniors : taille des ongles trop courts (trop près de l’intersection avec la peau - Voir photo à droite.) ou chaussures trop serrées latéralement, pas assez longues ou forme inadaptée[1].</t>
+Ongle incarné des seniors : taille des ongles trop courts (trop près de l’intersection avec la peau - Voir photo à droite.) ou chaussures trop serrées latéralement, pas assez longues ou forme inadaptée.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ongle_incarn%C3%A9</t>
+          <t>Ongle_incarné</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,16 +626,11 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des soins de podologies peuvent être prescrits par le médecin traitant mais une intervention chirurgicale peut être nécessaire[2].
-Traitement chirurgical de l'ongle incarné du gros orteil
-L'ongle incarné avéré du gros orteil ne peut plus être traité médicalement. Il résulte de l'incarcération profonde du ou des bords de l'ongle dans les tissus mous du périonyxis. En l'absence de traitement chirurgical, l'extraction du bord de l'ongle ne peut pas être obtenue. Sa présence entretient les phénomènes infectieux et inflammatoires ainsi que la douleur au contact. 
-Le principe du traitement chirurgical repose sur la résection du bord latéral ou médial (ou des deux) de l'ongle et sur l'exérèse partielle de la matrice unguéale correspondante, encore appelée le repli de l'ongle.
-Ce traitement peut être proposé en chirurgie ambulatoire, mais aussi en consultation externe, si toutefois on dispose d'une installation adaptée. Il peut être effectué sous anesthésie locale à la Xylocaïne, ou sous Kalinox.
-Traitement conservateur
-Les cas légers à modérés sont souvent traités de manière conservatrice avec un trempage à l'eau chaude et au sel anglais, l'application d'une pommade antibactérienne et l'utilisation du fil dentaire[3],[4]. Si le traitement conservateur d'un ongle incarné mineur échoue ou si l'ongle incarné est grave, un traitement chirurgical peut s'avérer nécessaire[5]. Une "attelle rainurée" peut être fabriquée en coupant en diagonale un applicateur de coton en bois pour former un biseau, et en l'utilisant pour insérer un morceau de coton absorbant de la tête de l'applicateur sous l'ongle de l'orteil pour l'enlever de la peau sous-jacente après avoir trempé le pied[6].
-Certains kits de soulagement de la douleur de l'ongle incarné en vente libre comprennent du gel de sulfure de sodium avec des coussinets et des bandages élastiques[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des soins de podologies peuvent être prescrits par le médecin traitant mais une intervention chirurgicale peut être nécessaire.
 </t>
         </is>
       </c>
@@ -628,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ongle_incarn%C3%A9</t>
+          <t>Ongle_incarné</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,13 +656,92 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traitement chirurgical de l'ongle incarné du gros orteil</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ongle incarné avéré du gros orteil ne peut plus être traité médicalement. Il résulte de l'incarcération profonde du ou des bords de l'ongle dans les tissus mous du périonyxis. En l'absence de traitement chirurgical, l'extraction du bord de l'ongle ne peut pas être obtenue. Sa présence entretient les phénomènes infectieux et inflammatoires ainsi que la douleur au contact. 
+Le principe du traitement chirurgical repose sur la résection du bord latéral ou médial (ou des deux) de l'ongle et sur l'exérèse partielle de la matrice unguéale correspondante, encore appelée le repli de l'ongle.
+Ce traitement peut être proposé en chirurgie ambulatoire, mais aussi en consultation externe, si toutefois on dispose d'une installation adaptée. Il peut être effectué sous anesthésie locale à la Xylocaïne, ou sous Kalinox.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ongle_incarné</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ongle_incarn%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traitement conservateur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cas légers à modérés sont souvent traités de manière conservatrice avec un trempage à l'eau chaude et au sel anglais, l'application d'une pommade antibactérienne et l'utilisation du fil dentaire,. Si le traitement conservateur d'un ongle incarné mineur échoue ou si l'ongle incarné est grave, un traitement chirurgical peut s'avérer nécessaire. Une "attelle rainurée" peut être fabriquée en coupant en diagonale un applicateur de coton en bois pour former un biseau, et en l'utilisant pour insérer un morceau de coton absorbant de la tête de l'applicateur sous l'ongle de l'orteil pour l'enlever de la peau sous-jacente après avoir trempé le pied.
+Certains kits de soulagement de la douleur de l'ongle incarné en vente libre comprennent du gel de sulfure de sodium avec des coussinets et des bandages élastiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ongle_incarné</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ongle_incarn%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>La prévention</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ongle incarné le plus courant est celui du gros orteil, mais il peut se développer sur n'importe quel ongle d'orteil. Les ongles incarnés peuvent être évités en coupant les ongles en ligne droite, pas en courbe, pas trop courts et pas plus courts que la chair qui les entoure. Les chaussures trop petites ou trop étroites, ou dont le "bout" est trop peu profond, exacerberont tout problème sous-jacent au niveau de l'ongle de l'orteil. Les angles vifs et carrés peuvent être inconfortables et causer des accrochages dans les chaussettes. Lorsqu'il est correctement taillé, le bord antérieur de l'ongle n'a pas de chair, ce qui l'empêche de pousser dans l'ongle de l'orteil. Il est judicieux de limer le coin. 
-Pour certains ongles, il faut couper les coins très en arrière afin d'enlever les bords qui s'enfoncent dans la chair ; cette opération est souvent réalisée par un podologue sous forme de résection partielle. Les coupe-ongles sont utilisés pour réduire délicatement et méthodiquement la longueur et la forme de l'ongle affecté[8]. Ainsi, le coupe-ongles orthopédique réduit efficacement la pression sur la peau environnante et soulage la douleur. Les ongles incarnés peuvent être causés par un traumatisme, généralement un traumatisme contondant dans lequel la chair est pressée contre l'ongle, provoquant une petite coupure qui gonfle[9],[10].
+Pour certains ongles, il faut couper les coins très en arrière afin d'enlever les bords qui s'enfoncent dans la chair ; cette opération est souvent réalisée par un podologue sous forme de résection partielle. Les coupe-ongles sont utilisés pour réduire délicatement et méthodiquement la longueur et la forme de l'ongle affecté. Ainsi, le coupe-ongles orthopédique réduit efficacement la pression sur la peau environnante et soulage la douleur. Les ongles incarnés peuvent être causés par un traumatisme, généralement un traumatisme contondant dans lequel la chair est pressée contre l'ongle, provoquant une petite coupure qui gonfle,.
 </t>
         </is>
       </c>
